--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1534441.964572044</v>
+        <v>1531590.129340191</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4919747.866036818</v>
+        <v>4919747.866036819</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8215795.933913757</v>
+        <v>8215795.933913759</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>341.5967826021767</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>16.07940334998279</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>21.62158221638396</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>182.3605091609523</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>167.9683453503095</v>
+        <v>365.391229544007</v>
       </c>
     </row>
     <row r="6">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>65.51730545107088</v>
+        <v>124.560277441142</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>175.6180090818121</v>
+        <v>366.5245773093264</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53.558706426582</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>270.6991101407518</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>119.7578122314817</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>22.96189723698664</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>102.8146297933963</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>133.485091330537</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -1627,7 +1627,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>125.1215825557435</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.789077753388</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>217.3191588954953</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>175.1138330786628</v>
       </c>
       <c r="G17" t="n">
         <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167709</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>160.296822096844</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>86.38229489247486</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579056</v>
+        <v>45.21383710579055</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871808</v>
+        <v>17.04250582871806</v>
       </c>
       <c r="S18" t="n">
         <v>131.5962913112782</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>141.7174172622209</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.154096978989</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5795167355755</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2098,10 +2098,10 @@
         <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.381551050970737</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>87.67507247247885</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2180,7 +2180,7 @@
         <v>86.38229489247486</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579056</v>
+        <v>45.21383710579055</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871808</v>
+        <v>17.04250582871806</v>
       </c>
       <c r="S21" t="n">
         <v>131.5962913112782</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.1271674224727</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>118.6333759660428</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>92.45970657557291</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>155.6200465405801</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2332,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>77.16867295074481</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>222.2172295452417</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597842</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.19311257242941</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -2538,7 +2538,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>49.99795536377299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>265.0945103612833</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>91.1803206999984</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597842</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>100.688611162505</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.9215128549015</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>112.8235974705422</v>
+        <v>205.5424948347955</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,7 +2809,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597842</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>38.91286352692094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>239.118105227732</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>191.0547574794771</v>
       </c>
       <c r="V32" t="n">
-        <v>133.1136858250985</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>76.19311257242943</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>96.42217151256034</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,10 +3274,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>235.056130084035</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
@@ -3286,7 +3286,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>91.1803206999993</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>18.23638304793239</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>264.8505249491657</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3505,25 +3505,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>322.0965820882676</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>364.4856118715413</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>87.52641650213988</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.71851572903456</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>45.46753445024678</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>260.1541824125158</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>76.19311257242943</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>102.6271512761643</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,7 +3994,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>181.0739242066369</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.7495899567519</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>157.5349988866253</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>76.1931125724297</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1429.351531027837</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.176029530768</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.176029530768</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="E2" t="n">
-        <v>633.5925046473121</v>
+        <v>546.515680946371</v>
       </c>
       <c r="F2" t="n">
-        <v>216.6980661772899</v>
+        <v>533.6616465167529</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
@@ -4330,19 +4330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2939.442830146827</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2597.336020850345</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2226.336985818633</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>2226.336985818633</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y2" t="n">
-        <v>1829.846276739234</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L3" t="n">
-        <v>381.858273766342</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M3" t="n">
-        <v>568.1699486069232</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P3" t="n">
         <v>2146.089571124861</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.7522408016008</v>
+        <v>545.2832935226386</v>
       </c>
       <c r="C4" t="n">
-        <v>217.7522408016008</v>
+        <v>375.0781755886278</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F4" t="n">
         <v>62.11912770411553</v>
@@ -4515,25 +4515,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>217.7522408016008</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>217.7522408016008</v>
+        <v>779.3636157396555</v>
       </c>
       <c r="X4" t="n">
-        <v>217.7522408016008</v>
+        <v>545.2832935226386</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.7522408016008</v>
+        <v>545.2832935226386</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2535.796644191037</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="C5" t="n">
-        <v>2142.621142693967</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="D5" t="n">
-        <v>1757.180013910635</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.596489027179</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="F5" t="n">
         <v>937.702050557157</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>3105.956385205776</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>3105.956385205776</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.291389902433</v>
+        <v>950.5560849867752</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4761,16 +4761,16 @@
         <v>351.4102853026953</v>
       </c>
       <c r="V7" t="n">
-        <v>285.2311888874722</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="W7" t="n">
-        <v>285.2311888874722</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="X7" t="n">
-        <v>285.2311888874722</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2320.013071059434</v>
+        <v>778.4054098058323</v>
       </c>
       <c r="C8" t="n">
-        <v>2142.621142693967</v>
+        <v>408.1785640388358</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>408.1785640388358</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>408.1785640388358</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>395.3245296092176</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X8" t="n">
-        <v>2716.503780138833</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.013071059434</v>
+        <v>1178.900155517229</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>658.8001958221562</v>
       </c>
       <c r="M9" t="n">
-        <v>1286.571845448837</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
-        <v>1942.349816659396</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O9" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T10" t="n">
-        <v>727.847098413902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U10" t="n">
-        <v>442.408306655803</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V10" t="n">
-        <v>176.4289614766272</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1798.55083824553</v>
+        <v>1479.113586077721</v>
       </c>
       <c r="C11" t="n">
-        <v>1405.375336748461</v>
+        <v>1479.113586077721</v>
       </c>
       <c r="D11" t="n">
-        <v>1019.934207965129</v>
+        <v>1479.113586077721</v>
       </c>
       <c r="E11" t="n">
-        <v>617.350683081673</v>
+        <v>1076.530061194265</v>
       </c>
       <c r="F11" t="n">
-        <v>200.4562446116507</v>
+        <v>659.6356227242428</v>
       </c>
       <c r="G11" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W11" t="n">
-        <v>2984.98889810327</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X11" t="n">
-        <v>2595.536293036326</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="Y11" t="n">
-        <v>2199.045583956927</v>
+        <v>1479.113586077721</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.6912334709294</v>
+        <v>674.5049701468956</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6912334709294</v>
+        <v>674.5049701468956</v>
       </c>
       <c r="D13" t="n">
-        <v>115.6912334709294</v>
+        <v>674.5049701468956</v>
       </c>
       <c r="E13" t="n">
-        <v>115.6912334709294</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="F13" t="n">
-        <v>115.6912334709294</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G13" t="n">
-        <v>115.6912334709294</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H13" t="n">
-        <v>115.6912334709294</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="V13" t="n">
-        <v>115.6912334709294</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="W13" t="n">
-        <v>115.6912334709294</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="X13" t="n">
-        <v>115.6912334709294</v>
+        <v>859.7129888381969</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.6912334709294</v>
+        <v>859.7129888381969</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2277.454568280368</v>
+        <v>1595.123960030147</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129435</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432348</v>
+        <v>2979.570948280783</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>2756.070345840199</v>
       </c>
       <c r="U14" t="n">
-        <v>2677.949313991765</v>
+        <v>2756.070345840199</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.949313991765</v>
+        <v>2756.070345840199</v>
       </c>
       <c r="W14" t="n">
-        <v>2677.949313991765</v>
+        <v>2385.071310808487</v>
       </c>
       <c r="X14" t="n">
-        <v>2677.949313991765</v>
+        <v>1995.618705741544</v>
       </c>
       <c r="Y14" t="n">
-        <v>2677.949313991765</v>
+        <v>1995.618705741544</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>652.3742250073851</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0482902203581</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>326.7942363198036</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>171.3156852812976</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>847.6175868584073</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1568.681939264738</v>
+        <v>1837.780403023113</v>
       </c>
       <c r="C17" t="n">
-        <v>1568.681939264738</v>
+        <v>1444.604901526044</v>
       </c>
       <c r="D17" t="n">
-        <v>1568.681939264738</v>
+        <v>1059.163772742712</v>
       </c>
       <c r="E17" t="n">
-        <v>1349.167637350096</v>
+        <v>656.5802478592561</v>
       </c>
       <c r="F17" t="n">
-        <v>932.2731988800742</v>
+        <v>479.6975881838392</v>
       </c>
       <c r="G17" t="n">
-        <v>519.3122019261881</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="H17" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523344</v>
+        <v>228.1696018523346</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068516</v>
+        <v>612.3056806068519</v>
       </c>
       <c r="L17" t="n">
         <v>1136.831389612605</v>
       </c>
       <c r="M17" t="n">
-        <v>1717.554329029429</v>
+        <v>1717.55432902943</v>
       </c>
       <c r="N17" t="n">
         <v>2280.649490936953</v>
@@ -5533,34 +5533,34 @@
         <v>2754.006657546708</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188928</v>
+        <v>3130.629921188929</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="R17" t="n">
-        <v>3311.510363809086</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="S17" t="n">
-        <v>3149.594381893082</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.976977540628</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="U17" t="n">
-        <v>2671.240388659875</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="V17" t="n">
-        <v>2329.133579363394</v>
+        <v>2994.722752201168</v>
       </c>
       <c r="W17" t="n">
-        <v>1958.134544331681</v>
+        <v>2623.723717169456</v>
       </c>
       <c r="X17" t="n">
-        <v>1568.681939264738</v>
+        <v>2234.271112102512</v>
       </c>
       <c r="Y17" t="n">
-        <v>1568.681939264738</v>
+        <v>1837.780403023113</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J18" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K18" t="n">
-        <v>403.5604616506784</v>
+        <v>403.5604616506785</v>
       </c>
       <c r="L18" t="n">
         <v>910.0990678349328</v>
       </c>
       <c r="M18" t="n">
-        <v>1564.678565091527</v>
+        <v>1403.536915182019</v>
       </c>
       <c r="N18" t="n">
-        <v>1581.491209873215</v>
+        <v>1403.536915182019</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.184511511797</v>
+        <v>1945.2302168206</v>
       </c>
       <c r="P18" t="n">
-        <v>2123.184511511797</v>
+        <v>2371.055152615259</v>
       </c>
       <c r="Q18" t="n">
         <v>2371.055152615259</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.6084755147492</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="C19" t="n">
-        <v>678.4033575807384</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="D19" t="n">
-        <v>522.7702444832532</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="E19" t="n">
-        <v>367.2114323424557</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="F19" t="n">
-        <v>209.8854975554287</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K19" t="n">
         <v>158.8770705324135</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544488</v>
+        <v>336.1921232544489</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294577</v>
+        <v>536.3879794294578</v>
       </c>
       <c r="N19" t="n">
-        <v>733.151278648043</v>
+        <v>733.1512786480431</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516665</v>
+        <v>908.3935224516667</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.997665514103</v>
+        <v>1038.997665514104</v>
       </c>
       <c r="Q19" t="n">
         <v>1049.847357282534</v>
@@ -5700,25 +5700,25 @@
         <v>1049.847357282534</v>
       </c>
       <c r="S19" t="n">
-        <v>848.6084755147492</v>
+        <v>848.6084755147494</v>
       </c>
       <c r="T19" t="n">
-        <v>848.6084755147492</v>
+        <v>618.1497916975889</v>
       </c>
       <c r="U19" t="n">
-        <v>848.6084755147492</v>
+        <v>332.7159364091287</v>
       </c>
       <c r="V19" t="n">
-        <v>848.6084755147492</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="W19" t="n">
-        <v>848.6084755147492</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="X19" t="n">
-        <v>848.6084755147492</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="Y19" t="n">
-        <v>848.6084755147492</v>
+        <v>66.73659122995299</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2530.367792513954</v>
+        <v>2077.792181817719</v>
       </c>
       <c r="C20" t="n">
-        <v>2137.192291016884</v>
+        <v>1684.616680320649</v>
       </c>
       <c r="D20" t="n">
-        <v>1751.751162233552</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>1349.167637350096</v>
+        <v>896.5920266538615</v>
       </c>
       <c r="F20" t="n">
-        <v>932.2731988800742</v>
+        <v>479.6975881838392</v>
       </c>
       <c r="G20" t="n">
-        <v>519.3122019261881</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="H20" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J20" t="n">
-        <v>228.1696018523344</v>
+        <v>228.1696018523345</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068516</v>
+        <v>612.3056806068518</v>
       </c>
       <c r="L20" t="n">
         <v>1136.831389612605</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.554329029429</v>
+        <v>1717.55432902943</v>
       </c>
       <c r="N20" t="n">
         <v>2280.649490936953</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546708</v>
+        <v>2754.006657546709</v>
       </c>
       <c r="P20" t="n">
-        <v>3130.629921188928</v>
+        <v>3130.629921188929</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.829561497649</v>
+        <v>3336.82956149765</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.829561497649</v>
+        <v>3174.913579581646</v>
       </c>
       <c r="T20" t="n">
-        <v>3336.829561497649</v>
+        <v>2952.296175229191</v>
       </c>
       <c r="U20" t="n">
-        <v>3336.829561497649</v>
+        <v>2952.296175229191</v>
       </c>
       <c r="V20" t="n">
-        <v>3327.353247304749</v>
+        <v>2952.296175229191</v>
       </c>
       <c r="W20" t="n">
-        <v>3327.353247304749</v>
+        <v>2863.735495964061</v>
       </c>
       <c r="X20" t="n">
-        <v>3327.353247304749</v>
+        <v>2474.282890897118</v>
       </c>
       <c r="Y20" t="n">
-        <v>2930.86253822535</v>
+        <v>2077.792181817719</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1827.009748376218</v>
+        <v>861.235339493828</v>
       </c>
       <c r="C21" t="n">
-        <v>1676.35551793631</v>
+        <v>710.5811090539202</v>
       </c>
       <c r="D21" t="n">
-        <v>1546.266550557791</v>
+        <v>580.4921416754005</v>
       </c>
       <c r="E21" t="n">
-        <v>1409.820059668678</v>
+        <v>444.0456507862882</v>
       </c>
       <c r="F21" t="n">
-        <v>1285.38825355181</v>
+        <v>319.61384466942</v>
       </c>
       <c r="G21" t="n">
-        <v>1165.436385969177</v>
+        <v>199.6619770867867</v>
       </c>
       <c r="H21" t="n">
-        <v>1078.181542643445</v>
+        <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.511000112343</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J21" t="n">
-        <v>1032.511000112343</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K21" t="n">
-        <v>1032.511000112343</v>
+        <v>403.5604616506785</v>
       </c>
       <c r="L21" t="n">
-        <v>1032.511000112343</v>
+        <v>720.2415723840235</v>
       </c>
       <c r="M21" t="n">
-        <v>1686.015981266415</v>
+        <v>720.2415723840235</v>
       </c>
       <c r="N21" t="n">
-        <v>2369.31132406441</v>
+        <v>1403.536915182019</v>
       </c>
       <c r="O21" t="n">
-        <v>2911.004625702991</v>
+        <v>1945.2302168206</v>
       </c>
       <c r="P21" t="n">
-        <v>3336.829561497649</v>
+        <v>2371.055152615259</v>
       </c>
       <c r="Q21" t="n">
-        <v>3336.829561497649</v>
+        <v>2371.055152615259</v>
       </c>
       <c r="R21" t="n">
-        <v>3319.614909145409</v>
+        <v>2353.840500263018</v>
       </c>
       <c r="S21" t="n">
-        <v>3186.68936236634</v>
+        <v>2220.914953483949</v>
       </c>
       <c r="T21" t="n">
-        <v>3010.140666212251</v>
+        <v>2044.36625732986</v>
       </c>
       <c r="U21" t="n">
-        <v>2800.084624887307</v>
+        <v>1834.310216004916</v>
       </c>
       <c r="V21" t="n">
-        <v>2577.544623258374</v>
+        <v>1611.770214375983</v>
       </c>
       <c r="W21" t="n">
-        <v>2347.427377391661</v>
+        <v>1381.65296850927</v>
       </c>
       <c r="X21" t="n">
-        <v>2158.120299741672</v>
+        <v>1192.345890859282</v>
       </c>
       <c r="Y21" t="n">
-        <v>1978.806082817179</v>
+        <v>1013.031673934789</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>548.1336344022466</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="C22" t="n">
-        <v>377.9285164682357</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="D22" t="n">
-        <v>222.2954033707505</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="E22" t="n">
-        <v>66.73659122995298</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="F22" t="n">
-        <v>66.73659122995298</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="G22" t="n">
-        <v>66.73659122995298</v>
+        <v>221.4104977172991</v>
       </c>
       <c r="H22" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="I22" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="J22" t="n">
-        <v>66.73659122995298</v>
+        <v>66.73659122995299</v>
       </c>
       <c r="K22" t="n">
         <v>158.8770705324135</v>
       </c>
       <c r="L22" t="n">
-        <v>336.1921232544488</v>
+        <v>336.1921232544489</v>
       </c>
       <c r="M22" t="n">
-        <v>536.3879794294577</v>
+        <v>536.3879794294578</v>
       </c>
       <c r="N22" t="n">
-        <v>733.151278648043</v>
+        <v>733.1512786480431</v>
       </c>
       <c r="O22" t="n">
-        <v>908.3935224516665</v>
+        <v>908.3935224516667</v>
       </c>
       <c r="P22" t="n">
-        <v>1038.997665514103</v>
+        <v>1038.997665514104</v>
       </c>
       <c r="Q22" t="n">
         <v>1049.847357282534</v>
       </c>
       <c r="R22" t="n">
-        <v>1049.847357282534</v>
+        <v>930.0156643875412</v>
       </c>
       <c r="S22" t="n">
-        <v>1049.847357282534</v>
+        <v>930.0156643875412</v>
       </c>
       <c r="T22" t="n">
-        <v>1049.847357282534</v>
+        <v>930.0156643875412</v>
       </c>
       <c r="U22" t="n">
-        <v>1049.847357282534</v>
+        <v>644.5818090990811</v>
       </c>
       <c r="V22" t="n">
-        <v>1049.847357282534</v>
+        <v>378.6024639199053</v>
       </c>
       <c r="W22" t="n">
-        <v>1049.847357282534</v>
+        <v>378.6024639199053</v>
       </c>
       <c r="X22" t="n">
-        <v>956.4537142769045</v>
+        <v>378.6024639199053</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.3416530935478</v>
+        <v>221.4104977172991</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1674.055825181743</v>
+        <v>2164.561908990576</v>
       </c>
       <c r="C23" t="n">
-        <v>1280.880323684673</v>
+        <v>1771.386407493507</v>
       </c>
       <c r="D23" t="n">
-        <v>895.4391949013411</v>
+        <v>1385.945278710175</v>
       </c>
       <c r="E23" t="n">
-        <v>492.8556700178857</v>
+        <v>983.361753826719</v>
       </c>
       <c r="F23" t="n">
-        <v>75.96123154786345</v>
+        <v>566.4673153566968</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786345</v>
+        <v>153.9093860435653</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K23" t="n">
         <v>705.31081511305</v>
@@ -5998,7 +5998,7 @@
         <v>1292.177839612518</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.26750440162</v>
       </c>
       <c r="N23" t="n">
         <v>2575.851817818622</v>
@@ -6019,22 +6019,22 @@
         <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393173</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U23" t="n">
-        <v>3573.599729367676</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V23" t="n">
-        <v>3231.492920071194</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="W23" t="n">
-        <v>2860.493885039482</v>
+        <v>2950.505223136919</v>
       </c>
       <c r="X23" t="n">
-        <v>2471.041279972539</v>
+        <v>2561.052618069975</v>
       </c>
       <c r="Y23" t="n">
-        <v>2074.55057089314</v>
+        <v>2164.561908990576</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.529170671759</v>
+        <v>1707.484428651028</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.529170671759</v>
+        <v>1707.484428651028</v>
       </c>
       <c r="O24" t="n">
-        <v>1928.512430234351</v>
+        <v>2299.46768821362</v>
       </c>
       <c r="P24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>3488.271420568131</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T25" t="n">
-        <v>3253.711577637593</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U25" t="n">
-        <v>2968.287584290998</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V25" t="n">
-        <v>2702.308239111823</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>1524.933619399886</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1131.758117902816</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>746.3169891194839</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331173</v>
+        <v>343.7334642360284</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>343.7334642360284</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T26" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U26" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="V26" t="n">
-        <v>3798.061577393172</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W26" t="n">
-        <v>3705.96024335277</v>
+        <v>2711.371679257625</v>
       </c>
       <c r="X26" t="n">
-        <v>3316.507638285826</v>
+        <v>2321.919074190681</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>1925.428365111283</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J27" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K27" t="n">
-        <v>589.997147027437</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L27" t="n">
-        <v>1142.429615858993</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M27" t="n">
-        <v>1142.429615858993</v>
+        <v>1707.484428651028</v>
       </c>
       <c r="N27" t="n">
-        <v>1294.106752377725</v>
+        <v>1707.484428651028</v>
       </c>
       <c r="O27" t="n">
-        <v>1886.090011940317</v>
+        <v>2299.46768821362</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2299.46768821362</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>401.2699160245195</v>
+        <v>813.8974751704875</v>
       </c>
       <c r="C28" t="n">
-        <v>401.2699160245195</v>
+        <v>643.6923572364767</v>
       </c>
       <c r="D28" t="n">
-        <v>401.2699160245195</v>
+        <v>488.0592441389915</v>
       </c>
       <c r="E28" t="n">
-        <v>401.2699160245195</v>
+        <v>488.0592441389915</v>
       </c>
       <c r="F28" t="n">
-        <v>243.9439812374924</v>
+        <v>330.7333093519644</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K28" t="n">
-        <v>188.6896288950474</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
         <v>392.350128542232</v>
@@ -6417,19 +6417,19 @@
         <v>1222.217555045145</v>
       </c>
       <c r="U28" t="n">
-        <v>950.5796632725177</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V28" t="n">
-        <v>684.6003180933419</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="W28" t="n">
-        <v>401.2699160245195</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="X28" t="n">
-        <v>401.2699160245195</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="Y28" t="n">
-        <v>401.2699160245195</v>
+        <v>999.1054938617888</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1421.960353982697</v>
+        <v>2218.945808773493</v>
       </c>
       <c r="C29" t="n">
-        <v>1307.997124214473</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D29" t="n">
-        <v>1307.997124214473</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E29" t="n">
-        <v>905.4135993310172</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F29" t="n">
-        <v>488.5191608609949</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G29" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H29" t="n">
         <v>75.96123154786345</v>
@@ -6508,7 +6508,7 @@
         <v>2218.945808773493</v>
       </c>
       <c r="Y29" t="n">
-        <v>1822.455099694094</v>
+        <v>2218.945808773493</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L30" t="n">
-        <v>75.96123154786345</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M30" t="n">
-        <v>784.096701840203</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.365484919429</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O30" t="n">
-        <v>2114.348744482021</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.4642167637957</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
-        <v>188.6896288950474</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
         <v>392.350128542232</v>
@@ -6645,28 +6645,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T31" t="n">
-        <v>677.8675552895655</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U31" t="n">
-        <v>392.4435619429715</v>
+        <v>980.6841154211737</v>
       </c>
       <c r="V31" t="n">
-        <v>126.4642167637957</v>
+        <v>714.7047702419979</v>
       </c>
       <c r="W31" t="n">
-        <v>126.4642167637957</v>
+        <v>431.3743681731755</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4642167637957</v>
+        <v>431.3743681731755</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4642167637957</v>
+        <v>431.3743681731755</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2019.061499835921</v>
+        <v>1674.055825181743</v>
       </c>
       <c r="C32" t="n">
-        <v>1625.885998338852</v>
+        <v>1280.880323684673</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.885998338852</v>
+        <v>895.4391949013411</v>
       </c>
       <c r="E32" t="n">
-        <v>1223.302473455396</v>
+        <v>492.8556700178857</v>
       </c>
       <c r="F32" t="n">
-        <v>806.4080349853741</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H32" t="n">
         <v>75.96123154786345</v>
@@ -6727,25 +6727,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3577.208601638122</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U32" t="n">
-        <v>3321.50425816863</v>
+        <v>3231.492920071194</v>
       </c>
       <c r="V32" t="n">
-        <v>3187.04598965843</v>
+        <v>3231.492920071194</v>
       </c>
       <c r="W32" t="n">
-        <v>2816.046954626717</v>
+        <v>2860.493885039482</v>
       </c>
       <c r="X32" t="n">
-        <v>2816.046954626717</v>
+        <v>2471.041279972539</v>
       </c>
       <c r="Y32" t="n">
-        <v>2419.556245547318</v>
+        <v>2074.55057089314</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>1019.255099689836</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O33" t="n">
-        <v>1611.238359252428</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P33" t="n">
-        <v>2077.425419922113</v>
+        <v>2200.59993609127</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.96123154786345</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="C34" t="n">
-        <v>75.96123154786345</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="D34" t="n">
-        <v>75.96123154786345</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F34" t="n">
         <v>75.96123154786345</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T34" t="n">
-        <v>987.6577121146066</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U34" t="n">
-        <v>702.2337187680125</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="V34" t="n">
-        <v>436.2543735888368</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="W34" t="n">
-        <v>152.9239715200144</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="X34" t="n">
-        <v>75.96123154786345</v>
+        <v>641.8752244141433</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.96123154786345</v>
+        <v>544.4790915731733</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519.522183495031</v>
+        <v>1822.455099694094</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.346681997961</v>
+        <v>1429.279598197025</v>
       </c>
       <c r="D35" t="n">
-        <v>1740.905553214629</v>
+        <v>1043.838469413692</v>
       </c>
       <c r="E35" t="n">
-        <v>1338.322028331173</v>
+        <v>1043.838469413692</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K35" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393173</v>
+        <v>3577.208601638122</v>
       </c>
       <c r="U35" t="n">
-        <v>3798.061577393173</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V35" t="n">
-        <v>3798.061577393173</v>
+        <v>2979.397448872149</v>
       </c>
       <c r="W35" t="n">
-        <v>3705.96024335277</v>
+        <v>2608.398413840436</v>
       </c>
       <c r="X35" t="n">
-        <v>3316.507638285826</v>
+        <v>2218.945808773493</v>
       </c>
       <c r="Y35" t="n">
-        <v>2920.016929206427</v>
+        <v>1822.455099694094</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.025029968184</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.520043688661</v>
+        <v>251.707755272196</v>
       </c>
       <c r="C37" t="n">
-        <v>231.520043688661</v>
+        <v>251.707755272196</v>
       </c>
       <c r="D37" t="n">
-        <v>231.520043688661</v>
+        <v>251.707755272196</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786346</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
         <v>188.6896288950475</v>
@@ -7122,25 +7122,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U37" t="n">
-        <v>954.6917722682103</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="V37" t="n">
-        <v>688.7124270890346</v>
+        <v>758.150218524375</v>
       </c>
       <c r="W37" t="n">
-        <v>688.7124270890346</v>
+        <v>474.8198164555526</v>
       </c>
       <c r="X37" t="n">
-        <v>454.6321048720176</v>
+        <v>474.8198164555526</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.520043688661</v>
+        <v>251.707755272196</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1764.067163279179</v>
+        <v>1524.933619399886</v>
       </c>
       <c r="C38" t="n">
-        <v>1764.067163279179</v>
+        <v>1131.758117902816</v>
       </c>
       <c r="D38" t="n">
-        <v>1378.626034495847</v>
+        <v>1131.758117902816</v>
       </c>
       <c r="E38" t="n">
-        <v>976.0425096123915</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="F38" t="n">
-        <v>559.1480711423693</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G38" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786346</v>
@@ -7180,13 +7180,13 @@
         <v>705.31081511305</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.26750440162</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T38" t="n">
-        <v>3577.208601638123</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U38" t="n">
-        <v>3321.504258168631</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="V38" t="n">
-        <v>3321.504258168631</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W38" t="n">
-        <v>2950.505223136919</v>
+        <v>2711.371679257625</v>
       </c>
       <c r="X38" t="n">
-        <v>2561.052618069975</v>
+        <v>2321.919074190681</v>
       </c>
       <c r="Y38" t="n">
-        <v>2164.561908990576</v>
+        <v>1925.428365111283</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N39" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O39" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.9439812374925</v>
+        <v>164.3717532671967</v>
       </c>
       <c r="C40" t="n">
-        <v>243.9439812374925</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D40" t="n">
-        <v>243.9439812374925</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E40" t="n">
-        <v>243.9439812374925</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F40" t="n">
-        <v>243.9439812374925</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G40" t="n">
         <v>75.96123154786346</v>
@@ -7359,25 +7359,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U40" t="n">
-        <v>738.7055703569567</v>
+        <v>936.7935616985515</v>
       </c>
       <c r="V40" t="n">
-        <v>738.7055703569567</v>
+        <v>670.8142165193757</v>
       </c>
       <c r="W40" t="n">
-        <v>738.7055703569567</v>
+        <v>387.4838144505533</v>
       </c>
       <c r="X40" t="n">
-        <v>504.6252481399398</v>
+        <v>387.4838144505533</v>
       </c>
       <c r="Y40" t="n">
-        <v>429.1519999287938</v>
+        <v>164.3717532671967</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1658.681880997335</v>
+        <v>1269.229275930393</v>
       </c>
       <c r="C41" t="n">
-        <v>1658.681880997335</v>
+        <v>1269.229275930393</v>
       </c>
       <c r="D41" t="n">
-        <v>1273.240752214003</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="E41" t="n">
-        <v>870.6572273305476</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F41" t="n">
-        <v>453.7627888605253</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G41" t="n">
-        <v>453.7627888605253</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874839</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7429,34 +7429,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T41" t="n">
-        <v>3424.477523585818</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U41" t="n">
-        <v>3168.773180116325</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V41" t="n">
-        <v>2826.666370819844</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W41" t="n">
-        <v>2455.667335788131</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.667335788131</v>
+        <v>2066.214730721189</v>
       </c>
       <c r="Y41" t="n">
-        <v>2059.176626708732</v>
+        <v>1669.72402164179</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3489583586882</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="M42" t="n">
-        <v>999.3489583586882</v>
+        <v>1336.529170671759</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.106752377725</v>
+        <v>2074.797953750985</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.090011940317</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.9239715200144</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C43" t="n">
-        <v>152.9239715200144</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D43" t="n">
-        <v>152.9239715200144</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E43" t="n">
-        <v>152.9239715200144</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K43" t="n">
         <v>188.6896288950475</v>
@@ -7596,25 +7596,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T43" t="n">
-        <v>987.6577121146066</v>
+        <v>920.465774535708</v>
       </c>
       <c r="U43" t="n">
-        <v>702.2337187680125</v>
+        <v>920.465774535708</v>
       </c>
       <c r="V43" t="n">
-        <v>436.2543735888368</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="W43" t="n">
-        <v>152.9239715200144</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="X43" t="n">
-        <v>152.9239715200144</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.9239715200144</v>
+        <v>431.3743681731755</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1616.477974952466</v>
+        <v>2269.516708238952</v>
       </c>
       <c r="C44" t="n">
-        <v>1223.302473455396</v>
+        <v>1876.341206741883</v>
       </c>
       <c r="D44" t="n">
-        <v>1223.302473455396</v>
+        <v>1490.90007795855</v>
       </c>
       <c r="E44" t="n">
-        <v>1223.302473455396</v>
+        <v>1088.316553075095</v>
       </c>
       <c r="F44" t="n">
-        <v>806.4080349853741</v>
+        <v>671.4221146050726</v>
       </c>
       <c r="G44" t="n">
-        <v>393.8501056722426</v>
+        <v>258.8641852919411</v>
       </c>
       <c r="H44" t="n">
         <v>75.96123154786345</v>
@@ -7651,7 +7651,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7669,31 +7669,31 @@
         <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U44" t="n">
-        <v>3168.773180116325</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819844</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.667335788131</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="X44" t="n">
-        <v>2066.214730721188</v>
+        <v>3066.502163029748</v>
       </c>
       <c r="Y44" t="n">
-        <v>2016.972720663863</v>
+        <v>2670.011453950349</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>95.86737287901099</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271324</v>
+        <v>466.8226308582799</v>
       </c>
       <c r="L45" t="n">
-        <v>999.3489583586882</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M45" t="n">
-        <v>999.3489583586882</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N45" t="n">
         <v>1019.255099689836</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E46" t="n">
-        <v>517.3489956563499</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F46" t="n">
-        <v>360.0230608693228</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G46" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H46" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
         <v>75.96123154786345</v>
@@ -7812,13 +7812,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L46" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O46" t="n">
         <v>1044.49322140544</v>
@@ -7827,31 +7827,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045145</v>
+        <v>1145.254815072994</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045145</v>
+        <v>1145.254815072994</v>
       </c>
       <c r="T46" t="n">
-        <v>1222.217555045145</v>
+        <v>910.6949721424555</v>
       </c>
       <c r="U46" t="n">
-        <v>1222.217555045145</v>
+        <v>625.2709787958615</v>
       </c>
       <c r="V46" t="n">
-        <v>956.2382098659697</v>
+        <v>359.2916336166858</v>
       </c>
       <c r="W46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="X46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y46" t="n">
-        <v>672.9078077971474</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8294,13 +8294,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
@@ -8309,13 +8309,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>298.4852906721864</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8774,19 +8774,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9011,10 +9011,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>72.3475064186832</v>
+        <v>72.34750641868317</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>563.7305561070627</v>
       </c>
       <c r="N18" t="n">
-        <v>74.55925749482587</v>
+        <v>57.57678801837256</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>66.67572130591981</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>77.34618391493267</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>72.3475064186832</v>
+        <v>72.34750641868317</v>
       </c>
       <c r="K21" t="n">
-        <v>72.33963800151612</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>66.85578091152313</v>
+        <v>386.7356907431847</v>
       </c>
       <c r="M21" t="n">
-        <v>725.4145296494726</v>
+        <v>65.30848807970322</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.34618391493269</v>
+        <v>77.34618391493267</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,7 +9719,7 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>2.048060461573982</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>453.9509915085708</v>
+        <v>79.24871072143003</v>
       </c>
       <c r="Q24" t="n">
         <v>50.09263685995592</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406339</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,19 +9962,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>11.21154561935394</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>155.2572892683739</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>103.4354493815539</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,25 +10193,25 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404701</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737978</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>266.2375427735506</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10439,7 +10439,7 @@
         <v>11.21154561935391</v>
       </c>
       <c r="N33" t="n">
-        <v>22.15527392737978</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>203.3018656667558</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463526</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>164.4207744261539</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N39" t="n">
         <v>2.048060461573968</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,25 +11141,25 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248232</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>299.7832059353482</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>19.11633585809851</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406339</v>
+        <v>72.28331192986897</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,10 +11384,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>11.21154561935391</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>22.15527392737978</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>138.3320178161251</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>247.5312324499137</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.84734968035249</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>255.7586551515616</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.72683695261645</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23658,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>23.65888910788262</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23706,19 +23706,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,25 +23734,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>181.2385307391256</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>237.6116610066592</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.06600571167706</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>24.7644991753798</v>
+        <v>166.4819164376007</v>
       </c>
       <c r="H19" t="n">
         <v>153.1271674224727</v>
@@ -23913,7 +23913,7 @@
         <v>129.0690572509242</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902337</v>
+        <v>23.73998494902336</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.9790380929424</v>
+        <v>4.8249411139534</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5795167355755</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167709</v>
+        <v>25.06600571167706</v>
       </c>
       <c r="S20" t="n">
-        <v>160.296822096844</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.179222991945</v>
       </c>
       <c r="V20" t="n">
-        <v>329.304190152546</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>279.6139722089166</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24144,13 +24144,13 @@
         <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
-        <v>153.1271674224727</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>129.0690572509242</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902337</v>
+        <v>23.73998494902336</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660428</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>199.2264929501066</v>
@@ -24183,19 +24183,19 @@
         <v>232.9790380929424</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5795167355755</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>139.2798124192738</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>65.26089403094295</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>237.5413124323906</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270195</v>
@@ -24259,13 +24259,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>30.93007048955553</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>75.34263329112548</v>
       </c>
       <c r="I25" t="n">
         <v>123.6862121416195</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>230.4991426843612</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>143.3378396587169</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>276.108723981397</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.61431103022767</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416195</v>
@@ -24657,19 +24657,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>13.64824055822658</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>276.4201490115565</v>
+        <v>183.7012516473031</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270195</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24858,10 +24858,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>84.77334861469859</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>43.45164818539607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>62.09254255532014</v>
       </c>
       <c r="V32" t="n">
-        <v>205.5720553784183</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3029221927327</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281788</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>155.5464064224173</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>124.4587690589627</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>177.669364001287</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>276.1087239813961</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.7668409714571</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3029221927327</v>
@@ -25362,22 +25362,22 @@
         <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>17.71922846396234</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>76.46110754635328</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>43.94673814845879</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>80.97665025253079</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25563,7 +25563,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25599,7 +25599,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
         <v>232.2142445012334</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.1624248424885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>336.1191830452522</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>54.55580297061954</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>79.55956286672735</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.3029221927327</v>
@@ -25836,25 +25836,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>129.5870932250691</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>133.6360611764985</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.776212031853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,22 +26031,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>8.767923306107434</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>34.39203125618232</v>
       </c>
       <c r="S46" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636384.771755615</v>
+        <v>636384.7717556152</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687032.0555170104</v>
+        <v>687032.0555170105</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687032.0555170104</v>
+        <v>687032.0555170105</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687032.0555170105</v>
+        <v>687032.0555170103</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687032.0555170105</v>
+        <v>687032.0555170106</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687032.0555170104</v>
+        <v>687032.0555170106</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687032.0555170105</v>
+        <v>687032.0555170107</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687032.0555170103</v>
+        <v>687032.0555170105</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240566</v>
       </c>
       <c r="D2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240565</v>
       </c>
       <c r="E2" t="n">
-        <v>305334.4197764112</v>
+        <v>305334.4197764113</v>
       </c>
       <c r="F2" t="n">
-        <v>305334.4197764112</v>
+        <v>305334.4197764114</v>
       </c>
       <c r="G2" t="n">
-        <v>318759.5532696691</v>
+        <v>318759.5532696694</v>
       </c>
       <c r="H2" t="n">
-        <v>318759.5532696694</v>
+        <v>318759.5532696692</v>
       </c>
       <c r="I2" t="n">
-        <v>345579.91189346</v>
+        <v>345579.9118934601</v>
       </c>
       <c r="J2" t="n">
-        <v>345579.91189346</v>
+        <v>345579.9118934601</v>
       </c>
       <c r="K2" t="n">
-        <v>345579.91189346</v>
+        <v>345579.9118934601</v>
       </c>
       <c r="L2" t="n">
         <v>345579.9118934601</v>
       </c>
       <c r="M2" t="n">
-        <v>345579.9118934601</v>
+        <v>345579.91189346</v>
       </c>
       <c r="N2" t="n">
         <v>345579.9118934601</v>
       </c>
       <c r="O2" t="n">
+        <v>345579.91189346</v>
+      </c>
+      <c r="P2" t="n">
         <v>345579.9118934601</v>
-      </c>
-      <c r="P2" t="n">
-        <v>345579.91189346</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636404</v>
+        <v>54449.60099636411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695388</v>
+        <v>13889.96518695392</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26438,10 +26438,10 @@
         <v>26007.13884605497</v>
       </c>
       <c r="I4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
       <c r="J4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
       <c r="K4" t="n">
         <v>25307.38367720429</v>
@@ -26453,7 +26453,7 @@
         <v>25307.38367720429</v>
       </c>
       <c r="N4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
       <c r="O4" t="n">
         <v>25307.38367720429</v>
@@ -26481,19 +26481,19 @@
         <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.95469354861</v>
+        <v>51802.95469354862</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354861</v>
+        <v>51802.95469354862</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="K5" t="n">
         <v>60977.55903357454</v>
@@ -26502,13 +26502,13 @@
         <v>60977.55903357454</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357455</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="P5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55870.29491726338</v>
+        <v>-55870.29491726347</v>
       </c>
       <c r="C6" t="n">
-        <v>204349.0605025655</v>
+        <v>204349.0605025656</v>
       </c>
       <c r="D6" t="n">
-        <v>204349.0605025655</v>
+        <v>204349.0605025656</v>
       </c>
       <c r="E6" t="n">
-        <v>231766.4761295136</v>
+        <v>231235.3810976485</v>
       </c>
       <c r="F6" t="n">
-        <v>231766.4761295136</v>
+        <v>231235.3810976486</v>
       </c>
       <c r="G6" t="n">
-        <v>186499.8587337015</v>
+        <v>186024.7017580584</v>
       </c>
       <c r="H6" t="n">
-        <v>240949.4597300658</v>
+        <v>240474.3027544223</v>
       </c>
       <c r="I6" t="n">
-        <v>153913.9488339327</v>
+        <v>153550.5433525553</v>
       </c>
       <c r="J6" t="n">
-        <v>56131.25606998615</v>
+        <v>55767.8505886088</v>
       </c>
       <c r="K6" t="n">
-        <v>259294.9691826812</v>
+        <v>258931.5637013037</v>
       </c>
       <c r="L6" t="n">
-        <v>259294.9691826813</v>
+        <v>258931.5637013037</v>
       </c>
       <c r="M6" t="n">
-        <v>259294.9691826813</v>
+        <v>258931.5637013037</v>
       </c>
       <c r="N6" t="n">
-        <v>259294.9691826812</v>
+        <v>258931.5637013038</v>
       </c>
       <c r="O6" t="n">
-        <v>245405.0039957274</v>
+        <v>245041.5985143498</v>
       </c>
       <c r="P6" t="n">
-        <v>259294.9691826811</v>
+        <v>258931.5637013038</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671307</v>
+        <v>49.68556691671317</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671308</v>
+        <v>49.68556691671319</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26801,19 +26801,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>834.2073903744123</v>
+        <v>834.2073903744124</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744123</v>
+        <v>834.2073903744124</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="K4" t="n">
         <v>949.5153943482931</v>
@@ -26822,16 +26822,16 @@
         <v>949.5153943482931</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482931</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482933</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671307</v>
+        <v>49.68556691671316</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488137498</v>
+        <v>99.26044488137489</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407296839</v>
+        <v>57.71829407296838</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>115.3080039738809</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296822</v>
+        <v>57.71829407296838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296839</v>
+        <v>57.71829407296838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.89301565210621</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>392.9517246068941</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27587,22 +27587,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>241.6979695110001</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>98.13658888718189</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.5574566382954</v>
+        <v>27.13457244459789</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>197.8022462763131</v>
+        <v>138.759274286242</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>213.6257374002866</v>
+        <v>22.71916917277224</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>100.4445175928075</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133476</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725294996</v>
+        <v>0.1997409725295</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917738</v>
+        <v>2.045597234917743</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443543</v>
+        <v>7.700513843443558</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722563</v>
+        <v>16.95276536722567</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439936</v>
+        <v>25.40780073439941</v>
       </c>
       <c r="L17" t="n">
-        <v>31.52062352244904</v>
+        <v>31.5206235224491</v>
       </c>
       <c r="M17" t="n">
-        <v>35.07276704267053</v>
+        <v>35.0727670426706</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108086997</v>
+        <v>35.64028108087005</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678527976</v>
+        <v>33.65410678527982</v>
       </c>
       <c r="P17" t="n">
-        <v>28.72300152595773</v>
+        <v>28.72300152595779</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724502</v>
+        <v>21.56977794724506</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565619</v>
+        <v>12.54697886565622</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411515978</v>
+        <v>4.551597411515987</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478851</v>
+        <v>0.8743661072478869</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780235997</v>
+        <v>0.01597927780236</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472696</v>
+        <v>0.1068708420472698</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930209</v>
+        <v>1.032147342930211</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416959</v>
+        <v>3.679544342416967</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465016</v>
+        <v>10.09695091465018</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181722</v>
+        <v>17.25729733181726</v>
       </c>
       <c r="L18" t="n">
-        <v>23.2045659453951</v>
+        <v>23.20456594539515</v>
       </c>
       <c r="M18" t="n">
-        <v>27.07863396960862</v>
+        <v>27.07863396960867</v>
       </c>
       <c r="N18" t="n">
-        <v>27.79532483579404</v>
+        <v>27.7953248357941</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727296</v>
+        <v>25.42729196727301</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339485</v>
+        <v>20.40764351339489</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.6419692409813</v>
+        <v>13.64196924098132</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198024</v>
+        <v>6.635366842198037</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851695</v>
+        <v>1.985079017851699</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326349</v>
+        <v>0.4307644905326357</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478268</v>
+        <v>0.007030976450478282</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817111</v>
+        <v>0.08959692394817129</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7965981056482855</v>
+        <v>0.796598105648287</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368637</v>
+        <v>2.694423858368643</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135696</v>
+        <v>6.334502523135709</v>
       </c>
       <c r="K19" t="n">
-        <v>10.4095335277966</v>
+        <v>10.40953352779663</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862173</v>
+        <v>13.32061903862176</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762104</v>
+        <v>14.04472508762107</v>
       </c>
       <c r="N19" t="n">
-        <v>13.7107729165415</v>
+        <v>13.71077291654153</v>
       </c>
       <c r="O19" t="n">
-        <v>12.66411794132877</v>
+        <v>12.6641179413288</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278607</v>
+        <v>10.83634069278609</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423673</v>
+        <v>7.502520604423689</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705947</v>
+        <v>4.028603507705955</v>
       </c>
       <c r="S19" t="n">
-        <v>1.56143002916949</v>
+        <v>1.561430029169494</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058219</v>
+        <v>0.3828232205058226</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00488710494262752</v>
+        <v>0.00488710494262753</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725294997</v>
+        <v>0.1997409725295001</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917739</v>
+        <v>2.045597234917744</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443543</v>
+        <v>7.700513843443561</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722564</v>
+        <v>16.95276536722568</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073439936</v>
+        <v>25.40780073439942</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352244905</v>
+        <v>31.52062352244912</v>
       </c>
       <c r="M20" t="n">
-        <v>35.07276704267053</v>
+        <v>35.07276704267061</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108086998</v>
+        <v>35.64028108087006</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678527977</v>
+        <v>33.65410678527984</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152595773</v>
+        <v>28.7230015259578</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724502</v>
+        <v>21.56977794724507</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565619</v>
+        <v>12.54697886565622</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411515978</v>
+        <v>4.551597411515989</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072478852</v>
+        <v>0.8743661072478872</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780235997</v>
+        <v>0.01597927780236</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472696</v>
+        <v>0.1068708420472699</v>
       </c>
       <c r="H21" t="n">
-        <v>1.03214734293021</v>
+        <v>1.032147342930212</v>
       </c>
       <c r="I21" t="n">
-        <v>3.67954434241696</v>
+        <v>3.679544342416968</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465016</v>
+        <v>10.09695091465018</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181722</v>
+        <v>17.25729733181726</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539511</v>
+        <v>23.20456594539516</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396960862</v>
+        <v>27.07863396960868</v>
       </c>
       <c r="N21" t="n">
-        <v>27.79532483579405</v>
+        <v>27.79532483579411</v>
       </c>
       <c r="O21" t="n">
-        <v>25.42729196727296</v>
+        <v>25.42729196727302</v>
       </c>
       <c r="P21" t="n">
-        <v>20.40764351339485</v>
+        <v>20.4076435133949</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.6419692409813</v>
+        <v>13.64196924098133</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198025</v>
+        <v>6.63536684219804</v>
       </c>
       <c r="S21" t="n">
-        <v>1.985079017851696</v>
+        <v>1.9850790178517</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326349</v>
+        <v>0.4307644905326359</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478269</v>
+        <v>0.007030976450478285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08959692394817112</v>
+        <v>0.08959692394817131</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7965981056482856</v>
+        <v>0.7965981056482874</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368638</v>
+        <v>2.694423858368644</v>
       </c>
       <c r="J22" t="n">
-        <v>6.334502523135697</v>
+        <v>6.334502523135712</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779661</v>
+        <v>10.40953352779663</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862173</v>
+        <v>13.32061903862176</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762104</v>
+        <v>14.04472508762107</v>
       </c>
       <c r="N22" t="n">
-        <v>13.7107729165415</v>
+        <v>13.71077291654153</v>
       </c>
       <c r="O22" t="n">
-        <v>12.66411794132877</v>
+        <v>12.6641179413288</v>
       </c>
       <c r="P22" t="n">
-        <v>10.83634069278607</v>
+        <v>10.8363406927861</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423674</v>
+        <v>7.502520604423692</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705948</v>
+        <v>4.028603507705957</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169491</v>
+        <v>1.561430029169494</v>
       </c>
       <c r="T22" t="n">
-        <v>0.382823220505822</v>
+        <v>0.3828232205058228</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004887104942627521</v>
+        <v>0.004887104942627532</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767355</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038868</v>
+        <v>6.13223454603887</v>
       </c>
       <c r="I23" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999188</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798411</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367552</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N23" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529573</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089762</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733327</v>
       </c>
       <c r="S23" t="n">
         <v>13.64465223657862</v>
@@ -32742,7 +32742,7 @@
         <v>2.621150418677911</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013883</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H24" t="n">
         <v>3.094142622447075</v>
@@ -32791,22 +32791,22 @@
         <v>30.26835886926996</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085103</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995797</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259269</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425363</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948264</v>
       </c>
       <c r="Q24" t="n">
         <v>40.89551629595807</v>
@@ -32815,7 +32815,7 @@
         <v>19.89131833031826</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650025</v>
       </c>
       <c r="T24" t="n">
         <v>1.291333819268329</v>
@@ -32858,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H25" t="n">
         <v>2.388019664566069</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J25" t="n">
         <v>18.98939563530706</v>
       </c>
       <c r="K25" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L25" t="n">
         <v>39.93218158927758</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089233</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O25" t="n">
         <v>37.96414084322416</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937316</v>
       </c>
       <c r="Q25" t="n">
         <v>22.4908477815113</v>
@@ -32894,10 +32894,10 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097291</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U25" t="n">
         <v>0.01465042738997589</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767355</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038868</v>
+        <v>6.13223454603887</v>
       </c>
       <c r="I26" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999188</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798411</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367552</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N26" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529573</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089762</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733327</v>
       </c>
       <c r="S26" t="n">
         <v>13.64465223657862</v>
@@ -32979,7 +32979,7 @@
         <v>2.621150418677911</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013883</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H27" t="n">
         <v>3.094142622447075</v>
@@ -33028,22 +33028,22 @@
         <v>30.26835886926996</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085103</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995797</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259269</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425363</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948264</v>
       </c>
       <c r="Q27" t="n">
         <v>40.89551629595807</v>
@@ -33052,7 +33052,7 @@
         <v>19.89131833031826</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650025</v>
       </c>
       <c r="T27" t="n">
         <v>1.291333819268329</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H28" t="n">
         <v>2.388019664566069</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J28" t="n">
         <v>18.98939563530706</v>
       </c>
       <c r="K28" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L28" t="n">
         <v>39.93218158927758</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089233</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O28" t="n">
         <v>37.96414084322416</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937316</v>
       </c>
       <c r="Q28" t="n">
         <v>22.4908477815113</v>
@@ -33131,10 +33131,10 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097291</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U28" t="n">
         <v>0.01465042738997589</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767355</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038868</v>
+        <v>6.13223454603887</v>
       </c>
       <c r="I29" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999188</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798411</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367552</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N29" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529573</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089762</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733327</v>
       </c>
       <c r="S29" t="n">
         <v>13.64465223657862</v>
@@ -33216,7 +33216,7 @@
         <v>2.621150418677911</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013883</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
         <v>3.094142622447075</v>
@@ -33265,22 +33265,22 @@
         <v>30.26835886926996</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085103</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995797</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259269</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425363</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948264</v>
       </c>
       <c r="Q30" t="n">
         <v>40.89551629595807</v>
@@ -33289,7 +33289,7 @@
         <v>19.89131833031826</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650025</v>
       </c>
       <c r="T30" t="n">
         <v>1.291333819268329</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
         <v>2.388019664566069</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
         <v>18.98939563530706</v>
       </c>
       <c r="K31" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
         <v>39.93218158927758</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089233</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
         <v>37.96414084322416</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937316</v>
       </c>
       <c r="Q31" t="n">
         <v>22.4908477815113</v>
@@ -33368,10 +33368,10 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097291</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U31" t="n">
         <v>0.01465042738997589</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,22 +34386,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
@@ -35029,13 +35029,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>205.7977317832975</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933146</v>
+        <v>163.0636470933147</v>
       </c>
       <c r="K17" t="n">
         <v>388.016241166179</v>
       </c>
       <c r="L17" t="n">
-        <v>529.82394849066</v>
+        <v>529.8239484906601</v>
       </c>
       <c r="M17" t="n">
-        <v>586.588827693762</v>
+        <v>586.5888276937621</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257811</v>
+        <v>568.7829918257812</v>
       </c>
       <c r="O17" t="n">
-        <v>478.138552131066</v>
+        <v>478.1385521310661</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325454</v>
+        <v>380.4275390325455</v>
       </c>
       <c r="Q17" t="n">
         <v>208.2824649583042</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>340.2261317381065</v>
+        <v>340.2261317381066</v>
       </c>
       <c r="L18" t="n">
         <v>511.6551577618732</v>
       </c>
       <c r="M18" t="n">
-        <v>661.1914113702967</v>
+        <v>498.4220680273594</v>
       </c>
       <c r="N18" t="n">
-        <v>16.98246947645326</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.1649511500821</v>
+        <v>547.1649511500822</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>430.1261977723822</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.3743849529919</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.07119121460659</v>
+        <v>93.0711912146066</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606417</v>
+        <v>179.1061138606418</v>
       </c>
       <c r="M19" t="n">
         <v>202.218036540413</v>
@@ -36056,13 +36056,13 @@
         <v>198.7508072915003</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784076</v>
+        <v>177.0123674784077</v>
       </c>
       <c r="P19" t="n">
         <v>131.9233768307442</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457616</v>
+        <v>10.95928461457617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933146</v>
+        <v>163.0636470933147</v>
       </c>
       <c r="K20" t="n">
         <v>388.016241166179</v>
       </c>
       <c r="L20" t="n">
-        <v>529.82394849066</v>
+        <v>529.8239484906601</v>
       </c>
       <c r="M20" t="n">
-        <v>586.588827693762</v>
+        <v>586.5888276937621</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257811</v>
+        <v>568.7829918257812</v>
       </c>
       <c r="O20" t="n">
-        <v>478.138552131066</v>
+        <v>478.1385521310661</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325454</v>
+        <v>380.4275390325455</v>
       </c>
       <c r="Q20" t="n">
         <v>208.2824649583042</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>340.2261317381066</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>319.8799098316616</v>
       </c>
       <c r="M21" t="n">
-        <v>660.1060415697693</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>690.1973159575709</v>
       </c>
       <c r="O21" t="n">
-        <v>547.1649511500821</v>
+        <v>547.1649511500822</v>
       </c>
       <c r="P21" t="n">
         <v>430.1261977723822</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.07119121460659</v>
+        <v>93.0711912146066</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606417</v>
+        <v>179.1061138606418</v>
       </c>
       <c r="M22" t="n">
         <v>202.218036540413</v>
@@ -36293,13 +36293,13 @@
         <v>198.7508072915003</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784076</v>
+        <v>177.0123674784077</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307442</v>
+        <v>131.9233768307443</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457616</v>
+        <v>10.95928461457618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K23" t="n">
         <v>438.7752394197637</v>
@@ -36366,16 +36366,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M23" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596987</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666694</v>
       </c>
       <c r="O23" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P23" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
         <v>251.3739679419567</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>715.288353830646</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>597.9628884470627</v>
       </c>
       <c r="P24" t="n">
-        <v>428.0450933087388</v>
+        <v>53.34281252159801</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K26" t="n">
         <v>438.7752394197637</v>
@@ -36603,16 +36603,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M26" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596987</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666694</v>
       </c>
       <c r="O26" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P26" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
         <v>251.3739679419567</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>374.7022807871404</v>
@@ -36682,19 +36682,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N27" t="n">
-        <v>153.2092288067999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>53.34281252159801</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K29" t="n">
         <v>438.7752394197637</v>
@@ -36840,16 +36840,16 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596987</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666694</v>
       </c>
       <c r="O29" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
         <v>251.3739679419567</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.288353830646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O30" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P30" t="n">
-        <v>240.3316445737185</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
         <v>374.7022807871404</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>20.10721346580581</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>597.9628884470627</v>
@@ -37168,7 +37168,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>277.6279320079687</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>153.2092288067999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P39" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N42" t="n">
-        <v>297.7351454737743</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470627</v>
+        <v>2.654006233463249</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.10721346580559</v>
       </c>
       <c r="K45" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>20.10721346580581</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P45" t="n">
         <v>470.8960208784699</v>
@@ -38192,10 +38192,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
